--- a/biology/Médecine/CARASIL/CARASIL.xlsx
+++ b/biology/Médecine/CARASIL/CARASIL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CARASIL, acronyme pour l'anglais : Cerebral autosomal recessive arteriopathy with subcortical infarcts and leukoencephalopathy, est une maladie génétique due à une mutation du gène HTRA1, avec perte de fonction.
 </t>
@@ -511,9 +523,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une maladie rare, seuls quelques dizaines de cas ayant été décrits[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une maladie rare, seuls quelques dizaines de cas ayant été décrits.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mutation du gène HTRA1 entraîne une augmentation de l'activité de la TGF bêta[2]. 
-L'atteinte artérielle se caractérise par une forte diminution des cellules musculaires lisses dans la média des petites artères cérébrales, avec atteinte de la matrice extracellulaire[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mutation du gène HTRA1 entraîne une augmentation de l'activité de la TGF bêta. 
+L'atteinte artérielle se caractérise par une forte diminution des cellules musculaires lisses dans la média des petites artères cérébrales, avec atteinte de la matrice extracellulaire.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie se manifeste par des accidents vasculaires cérébraux à répétition conduisant à une démence, une alopécie, des douleurs dorsales par hernie discale[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie se manifeste par des accidents vasculaires cérébraux à répétition conduisant à une démence, une alopécie, des douleurs dorsales par hernie discale.
 </t>
         </is>
       </c>
